--- a/monetization_factors/arendt-et-al.xlsx
+++ b/monetization_factors/arendt-et-al.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidba\internalization\monetization_factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028D38EF-73E9-4964-BAA8-5E74F25DF718}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7073F7-6034-47D5-86C0-5F706E5C23A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{236DD586-9F2F-45C9-B682-207984FB2C7D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{236DD586-9F2F-45C9-B682-207984FB2C7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="61">
   <si>
     <t>Method</t>
   </si>
@@ -180,11 +180,6 @@
     <t>max</t>
   </si>
   <si>
-    <t>0.00000
-420140
-2</t>
-  </si>
-  <si>
     <t>Environmental Prices</t>
   </si>
   <si>
@@ -213,6 +208,9 @@
   </si>
   <si>
     <t>min: countries with low biodiversity, max: countries with high biodiversity</t>
+  </si>
+  <si>
+    <t>2019€/kg PO4-eq</t>
   </si>
 </sst>
 </file>
@@ -573,17 +571,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4486B5-D32F-42F5-8C60-21FFA078D91E}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="G162" sqref="G162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,10 +602,10 @@
         <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -620,7 +619,7 @@
         <v>0.107281697</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -634,7 +633,7 @@
         <v>0.19388</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -648,7 +647,7 @@
         <v>129.25505999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -656,13 +655,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3">
         <v>1.5510607000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -676,7 +675,7 @@
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -690,7 +689,7 @@
         <v>0.72382829999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -701,7 +700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -715,7 +714,7 @@
         <v>5.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -729,7 +728,7 @@
         <v>19542.419999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -743,7 +742,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -757,7 +756,7 @@
         <v>2.371346E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -771,7 +770,7 @@
         <v>0.45889487000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -782,7 +781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -796,7 +795,7 @@
         <v>87.893439999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -810,7 +809,7 @@
         <v>0.15509999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -821,7 +820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -832,7 +831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -843,7 +842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -857,7 +856,7 @@
         <v>7.45E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -868,7 +867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -879,7 +878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -890,7 +889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -901,7 +900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -911,11 +910,11 @@
       <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E25" s="5">
+        <v>4.2014019999999998E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -929,7 +928,7 @@
         <v>821.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -943,7 +942,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -954,7 +953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -965,7 +964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -976,7 +975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -987,7 +986,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -998,7 +997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>3.2200000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1048,7 +1047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1062,9 +1061,9 @@
         <v>1.5299999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
@@ -1076,9 +1075,9 @@
         <v>5.9316800000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -1090,9 +1089,9 @@
         <v>7.8390399999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1104,9 +1103,9 @@
         <v>128.904</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1118,9 +1117,9 @@
         <v>6.4326240000000007E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1132,9 +1131,9 @@
         <v>3.25928</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -1146,9 +1145,9 @@
         <v>2.3185484000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1157,9 +1156,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -1168,9 +1167,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -1182,9 +1181,9 @@
         <v>42054.725700000003</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>13</v>
@@ -1196,9 +1195,9 @@
         <v>4.8312800000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>14</v>
@@ -1210,9 +1209,9 @@
         <v>3.8487079999999998E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>15</v>
@@ -1224,9 +1223,9 @@
         <v>9.1071200000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>16</v>
@@ -1238,9 +1237,9 @@
         <v>7.7447200000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>17</v>
@@ -1252,9 +1251,9 @@
         <v>146.72</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>18</v>
@@ -1266,9 +1265,9 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>19</v>
@@ -1277,9 +1276,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>20</v>
@@ -1288,9 +1287,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>21</v>
@@ -1299,7 +1298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -1313,7 +1312,7 @@
         <v>0.13728799999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>41</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>11.74808</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>1.28904E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>1.38336E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>41</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>1.3309599999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -1397,7 +1396,7 @@
         <v>19063</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -1414,7 +1413,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -1425,7 +1424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>5.8699999999999996E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -1461,7 +1460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -1472,7 +1471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>160.34</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -1503,10 +1502,10 @@
         <v>3.7</v>
       </c>
       <c r="G70" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -1517,7 +1516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -1528,7 +1527,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -1545,10 +1544,10 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="G73" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -1568,7 +1567,7 @@
         <v>0.106873343</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>0.94048540000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -1608,7 +1607,7 @@
         <v>106.8734</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>64.124005699999998</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -1659,7 +1658,7 @@
         <v>7.0536405999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>6.6582090000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -1719,10 +1718,10 @@
         <v>285156</v>
       </c>
       <c r="G82" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>3.0899999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -1762,7 +1761,7 @@
         <v>1.9771569999999999E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>42</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -1784,7 +1783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>42</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>90.842339999999993</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>42</v>
       </c>
@@ -1821,7 +1820,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>42</v>
       </c>
@@ -1841,10 +1840,10 @@
         <v>117.56</v>
       </c>
       <c r="G89" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>6.412401E-6</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>42</v>
       </c>
@@ -1884,7 +1883,7 @@
         <v>0.2137</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>43</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>6.2312592999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>43</v>
       </c>
@@ -1912,7 +1911,7 @@
         <v>1.7803598</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>43</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>118.69065000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>43</v>
       </c>
@@ -1940,7 +1939,7 @@
         <v>2.8258266000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>43</v>
       </c>
@@ -1951,7 +1950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>43</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>763.28393819999997</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>43</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>43</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>43</v>
       </c>
@@ -2007,7 +2006,7 @@
         <v>65629.48</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -2018,7 +2017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>43</v>
       </c>
@@ -2035,7 +2034,7 @@
         <v>1.2514040000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>43</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>17.0495071</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>43</v>
       </c>
@@ -2066,7 +2065,7 @@
         <v>1.318455E-6</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>43</v>
       </c>
@@ -2077,7 +2076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>43</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>43</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>43</v>
       </c>
@@ -2110,7 +2109,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -2121,7 +2120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>44</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>0.48090742600000003</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>2.5762898000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>44</v>
       </c>
@@ -2166,7 +2165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>44</v>
       </c>
@@ -2180,7 +2179,7 @@
         <v>57.537138400000003</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>44</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>7.7290000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>44</v>
       </c>
@@ -2214,7 +2213,7 @@
         <v>55.225933099999999</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -2225,7 +2224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -2245,7 +2244,7 @@
         <v>2.06E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -2265,7 +2264,7 @@
         <v>188578.36</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>44</v>
       </c>
@@ -2276,7 +2275,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>44</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>44</v>
       </c>
@@ -2298,7 +2297,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>44</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>1.030516</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>44</v>
       </c>
@@ -2326,7 +2325,7 @@
         <v>83.72</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>44</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>44</v>
       </c>
@@ -2348,7 +2347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>44</v>
       </c>
@@ -2359,7 +2358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>44</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>45</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>45</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>45</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>45</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>45</v>
       </c>
@@ -2425,7 +2424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>45</v>
       </c>
@@ -2436,7 +2435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>45</v>
       </c>
@@ -2458,7 +2457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>45</v>
       </c>
@@ -2469,7 +2468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>45</v>
       </c>
@@ -2480,7 +2479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>45</v>
       </c>
@@ -2491,7 +2490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>45</v>
       </c>
@@ -2502,7 +2501,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>45</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>45</v>
       </c>
@@ -2524,7 +2523,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -2535,7 +2534,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>45</v>
       </c>
@@ -2563,10 +2562,10 @@
         <v>0.1068733</v>
       </c>
       <c r="G144" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>45</v>
       </c>
@@ -2586,10 +2585,10 @@
         <v>33.909999999999997</v>
       </c>
       <c r="G145" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>0.119441934</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>46</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>9.0096285999999992</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>46</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>46</v>
       </c>
@@ -2645,7 +2644,7 @@
         <v>4.2937316000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>46</v>
       </c>
@@ -2656,7 +2655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>46</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>9.3082334000000007</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>46</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>8.1691920000000007</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>46</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>46</v>
       </c>
@@ -2715,7 +2714,7 @@
         <v>82452.42</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>46</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>46</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>3.5275960000000003E-5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>46</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>46</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>46</v>
       </c>
@@ -2776,7 +2775,7 @@
         <v>36.037999999999997</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>46</v>
       </c>
@@ -2793,10 +2792,10 @@
         <v>6.17</v>
       </c>
       <c r="G160" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>46</v>
       </c>
@@ -2813,10 +2812,10 @@
         <v>7.72</v>
       </c>
       <c r="G161" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>46</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>46</v>
       </c>
